--- a/car_details.xlsx
+++ b/car_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\UiPath\Assignment_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\UiPath\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573004F-FCFA-45D9-B00A-E8FE0D068618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C92C8C-8FC6-407B-8FD8-C0F0CB118CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{50901A77-A189-4A9D-B4AD-F1AFC4DF9751}"/>
+    <workbookView xWindow="6780" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{9CED462A-988E-47AC-BEEB-0D1D01C03A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>CarName</t>
   </si>
@@ -52,6 +52,106 @@
   </si>
   <si>
     <t>Nou
+Mazda Mazda CX-5 Allrad</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-Mazda-CX-5-Allrad/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344317933.html</t>
+  </si>
+  <si>
+    <t>17.900 EUR (brut)</t>
+  </si>
+  <si>
+    <t>88.566 RON (brut)</t>
+  </si>
+  <si>
+    <t>SUV / Off-road Vehicle / Pickup Truck, Diesel, Cutie de viteze manuală</t>
+  </si>
+  <si>
+    <t>Nou
+Mazda CX-5 2.0 SkyActiv-G 165 Skylease GT</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-2.0-SkyActiv-G-165-Skylease-GT/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344317725.html</t>
+  </si>
+  <si>
+    <t>23.799 EUR (brut)</t>
+  </si>
+  <si>
+    <t>19.999 EUR (net)</t>
+  </si>
+  <si>
+    <t>SUV / Off-road Vehicle / Pickup Truck, Benzină, Transmisie automată</t>
+  </si>
+  <si>
+    <t>Nou
+Mazda Mazda CX-5 194ps Aut. Sports-line</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-Mazda-CX-5-194ps-Aut.-Sports-line/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344317544.html</t>
+  </si>
+  <si>
+    <t>25.500 EUR (brut)</t>
+  </si>
+  <si>
+    <t>126.169 RON (brut)</t>
+  </si>
+  <si>
+    <t>Nou
+Mazda CX-5 2.0 SKYACTIV-G 165 Exclusive-Line FWD</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-2.0-SKYACTIV-G-165-Exclusive-Line/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344314501.html</t>
+  </si>
+  <si>
+    <t>22.290 EUR (brut)</t>
+  </si>
+  <si>
+    <t>110.286 RON (brut)</t>
+  </si>
+  <si>
+    <t>SUV / Off-road Vehicle / Pickup Truck, Benzină, Cutie de viteze manuală</t>
+  </si>
+  <si>
+    <t>Nou
+Mazda CX-5 G160 Exclusive-Line AWD AT Head-Up Navi LED</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-G160-Exclusive-Line-AWD-AT-Head-Up/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344313194.html</t>
+  </si>
+  <si>
+    <t>24.990 EUR (brut)</t>
+  </si>
+  <si>
+    <t>21.000 EUR (net)</t>
+  </si>
+  <si>
+    <t>Nou
+Mazda CX-5 Center-Line*1. Hand*org 85000km*TÜV 11/2023</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Center-Line-1.-Hand-org-85000km/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344312854.html</t>
+  </si>
+  <si>
+    <t>15.990 EUR (brut)</t>
+  </si>
+  <si>
+    <t>79.115 RON (brut)</t>
+  </si>
+  <si>
+    <t>Nou
+Mazda CX-5 Sports-Line 165 AWD TEC-P Navi-Kamera CX-5</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Sports-Line-165-AWD-TEC-P-Navi/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344310647.html</t>
+  </si>
+  <si>
+    <t>23.900 EUR (brut)</t>
+  </si>
+  <si>
+    <t>20.084 EUR (net)</t>
+  </si>
+  <si>
+    <t>Nou
 Mazda Mazda CX-5 SKYACTIV -G 165</t>
   </si>
   <si>
@@ -64,9 +164,6 @@
     <t>111.326 RON (brut)</t>
   </si>
   <si>
-    <t>SUV / Off-road Vehicle / Pickup Truck, Benzină, Cutie de viteze manuală</t>
-  </si>
-  <si>
     <t>Nou
 Mazda CX-5 SKYACTIV-G 192 Drive AWD Sports-Line</t>
   </si>
@@ -80,9 +177,6 @@
     <t>18.403 EUR (net)</t>
   </si>
   <si>
-    <t>SUV / Off-road Vehicle / Pickup Truck, Benzină, Transmisie automată</t>
-  </si>
-  <si>
     <t>Nou
 Mazda CX-5 SKY-D SPORTS-LINE+LEDER+BOSE+NAV+GJ-RÄDER</t>
   </si>
@@ -99,11 +193,23 @@
     <t>SUV / Off-road Vehicle / Pickup Truck, Diesel, Transmisie automată</t>
   </si>
   <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Sports-Line-165-AWD-TEC-P-Navi/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344310647.html</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-Mazda-CX-5-SKYACTIV-G-165/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344309409.html</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-G-192-Drive-AWD-Sports/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/341380847.html</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKY-D-SPORTS-LINE-LEDER-BOSE-NAV/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344306248.html</t>
+  </si>
+  <si>
     <t>Nou
 Mazda Mazda cx5 2018</t>
   </si>
   <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-Mazda-cx5-2018/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344305580.html</t>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-Mazda-cx5-2018/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344305580.html</t>
   </si>
   <si>
     <t>25.000 EUR (brut)</t>
@@ -116,7 +222,7 @@
 Mazda CX-5 SKYACTIV-G 165 FWD EXCLUSIVE NAV ACT-P</t>
   </si>
   <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-G-165-FWD-EXCLUSIVE-NAV/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/343147370.html</t>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-G-165-FWD-EXCLUSIVE-NAV/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/343147370.html</t>
   </si>
   <si>
     <t>22.980 EUR (brut)</t>
@@ -129,23 +235,14 @@
 Mazda CX-5 SKYACTIV-D 175 AWD SPORTSLINE, LEDER-Schwar</t>
   </si>
   <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-D-175-AWD-SPORTSLINE,/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344300265.html</t>
-  </si>
-  <si>
-    <t>24.990 EUR (brut)</t>
-  </si>
-  <si>
-    <t>21.000 EUR (net)</t>
-  </si>
-  <si>
-    <t>SUV / Off-road Vehicle / Pickup Truck, Diesel, Cutie de viteze manuală</t>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-D-175-AWD-SPORTSLINE,/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344300265.html</t>
   </si>
   <si>
     <t>Nou
 Mazda CX-5 SKYACTIV-G 160 MT AWD Sports-Line</t>
   </si>
   <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-G-160-MT-AWD-Sports-Line/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344300005.html</t>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-G-160-MT-AWD-Sports-Line/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344300005.html</t>
   </si>
   <si>
     <t>25.980 EUR (brut)</t>
@@ -158,7 +255,7 @@
 Mazda CX-5 2.0l SKYACTIV-G 121 kW (165 PS) Exclusive-L</t>
   </si>
   <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-2.0l-SKYACTIV-G-121-kW-165-PS/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344297314.html</t>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-2.0l-SKYACTIV-G-121-kW-165-PS/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344297314.html</t>
   </si>
   <si>
     <t>22.490 EUR (brut)</t>
@@ -171,153 +268,10 @@
 Mazda CX-5 Nakama Intense AWD 2.2 SKYACTIV-D/Leder/LED</t>
   </si>
   <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Nakama-Intense-AWD-2.2-SKYACTIV-D/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344296537.html</t>
+    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Nakama-Intense-AWD-2.2-SKYACTIV-D/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344296537.html</t>
   </si>
   <si>
     <t>108.357 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda Mazda CX-5 SKYACTIV-G 165 Exclusive-Line -...</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-Mazda-CX-5-SKYACTIV-G-165-Exclusive/vhc:car,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344295526.html</t>
-  </si>
-  <si>
-    <t>18.990 EUR (brut)</t>
-  </si>
-  <si>
-    <t>93.959 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 Nakama Intense AWD</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Nakama-Intense-AWD/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344293121.html</t>
-  </si>
-  <si>
-    <t>20.900 EUR (brut)</t>
-  </si>
-  <si>
-    <t>103.409 RON (brut)</t>
-  </si>
-  <si>
-    <t>Berlină, Diesel, Transmisie automată</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 Exclusive-Line 2WD*Navi*SHZ*Klimaautomatik*</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Exclusive-Line-2WD-Navi-SHZ/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/338714420.html</t>
-  </si>
-  <si>
-    <t>17.980 EUR (brut)</t>
-  </si>
-  <si>
-    <t>88.961 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 Exclusive-Line 2WD</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Exclusive-Line-2WD/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344291489.html</t>
-  </si>
-  <si>
-    <t>21.980 EUR (brut)</t>
-  </si>
-  <si>
-    <t>108.753 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda MAZDA CX 5 SENDO 2.2 D SKYACTIV D 150</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-MAZDA-CX-5-SENDO-2.2-D-SKYACTIV-D-150/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344291105.html</t>
-  </si>
-  <si>
-    <t>13.990 EUR (brut)</t>
-  </si>
-  <si>
-    <t>69.220 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda Mazda CX-5 SKYACTIVE-G 165 2.0 Exklusive 2...</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-Mazda-CX-5-SKYACTIVE-G-165-2.0/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344290781.html</t>
-  </si>
-  <si>
-    <t>13.950 EUR (brut)</t>
-  </si>
-  <si>
-    <t>69.022 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 Sports-Line AWD *Kamera* Navi* Head-Up*</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Sports-Line-AWD-Kamera-Navi-Head/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/342454535.html</t>
-  </si>
-  <si>
-    <t>28.900 EUR (brut)</t>
-  </si>
-  <si>
-    <t>142.991 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 2.0 SPORTS-LINE AWD NAVI+LEDER+KAMERA+</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-2.0-SPORTS-LINE-AWD-NAVI-LEDER/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344290420.html</t>
-  </si>
-  <si>
-    <t>19.850 EUR (brut)</t>
-  </si>
-  <si>
-    <t>98.214 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 SKYACTIV-G 194 AT AWD Sports-Line + Technik</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-SKYACTIV-G-194-AT-AWD-Sports-Line/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344290337.html</t>
-  </si>
-  <si>
-    <t>27.250 EUR (brut)</t>
-  </si>
-  <si>
-    <t>134.828 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 Nakama Intense AWD Vollausstattung 55.000Km</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-Nakama-Intense-AWD-Vollausstattung/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344286333.html</t>
-  </si>
-  <si>
-    <t>111.276 RON (brut)</t>
-  </si>
-  <si>
-    <t>Nou
-Mazda CX-5 2.2 SKYACTIV-D 150-T Exclusive-Line LED Nav</t>
-  </si>
-  <si>
-    <t>https://www.mobile.de/ro/Automobil/Mazda-CX-5-2.2-SKYACTIV-D-150-T-Exclusive/vhc:car,pgn:2,pgs:10,ms1:16800_33_,frn:2012,frx:2018,mlx:100000/pg:vipcar/344285222.html</t>
-  </si>
-  <si>
-    <t>24.989 EUR (brut)</t>
-  </si>
-  <si>
-    <t>20.999 EUR (net)</t>
   </si>
 </sst>
 </file>
@@ -671,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159C52B-E970-418F-A279-729B23766CEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33542CB3-0F74-4E12-8D8B-D5E78DBC730F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -695,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -712,7 +666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -729,7 +683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -743,24 +697,24 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -777,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -794,61 +748,61 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -862,177 +816,177 @@
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
